--- a/data/lab05/out/people.xlsx
+++ b/data/lab05/out/people.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,6 +424,7 @@
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -442,6 +443,11 @@
           <t>city</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>profession</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -459,6 +465,11 @@
           <t>SPB</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -474,6 +485,55 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>Moscow</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>policeman</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ryazan</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>programmer</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Liza</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Kazan</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>doctor</t>
         </is>
       </c>
     </row>
